--- a/example notebooks/Battery design/3_PAR_battery_design_parameters.xlsx
+++ b/example notebooks/Battery design/3_PAR_battery_design_parameters.xlsx
@@ -5,22 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Batt_Sust_Model-1/example notebooks/Battery design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://newcastle-my.sharepoint.com/personal/b8061896_newcastle_ac_uk/Documents/Python/Projects/Bat_Sust_Model/Batt_Sust_Model/example notebooks/Battery design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A97828DFC041AC0F62355476583EF6BFAB17FAD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32BC98D-B4BF-4073-8F18-BDF712684ACD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A9786FA742784C0E623554765834463A8A01FB55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80AC7F2F-5E82-4CF7-B230-6A3233AD2C36}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32865" yWindow="3045" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>result</t>
   </si>
@@ -100,6 +112,9 @@
     <t>cell_group_interconnect</t>
   </si>
   <si>
+    <t>total_cell_interconnects</t>
+  </si>
+  <si>
     <t>cells_in_parallel</t>
   </si>
   <si>
@@ -178,16 +193,16 @@
     <t>negative_am_per_cell</t>
   </si>
   <si>
-    <t>glider_weight</t>
-  </si>
-  <si>
-    <t>transmission_weight</t>
-  </si>
-  <si>
-    <t>motor_controller_weight</t>
-  </si>
-  <si>
-    <t>vehicle_weight</t>
+    <t>modules_per_row</t>
+  </si>
+  <si>
+    <t>rows_of_modules</t>
+  </si>
+  <si>
+    <t>total_elastomer_pads</t>
+  </si>
+  <si>
+    <t>module_interconnect_total</t>
   </si>
   <si>
     <t>pack_energy</t>
@@ -212,12 +227,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t>modules_per_row</t>
-  </si>
-  <si>
-    <t>rows_of_modules</t>
   </si>
   <si>
     <t>silicon_anode</t>
@@ -303,7 +312,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{80A283B7-37A6-4173-9CA2-9099A95F9295}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BDDC45DB-9D3A-4A87-A6F0-E17FB4E28D8D}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>77.487139277932627</v>
+        <v>77.486991635787192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.6744448804720249</v>
+        <v>3.674451881684925</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>232.4614178337979</v>
+        <v>232.46097490736159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>29.395559043776199</v>
+        <v>29.3956150534794</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>232.4614178337979</v>
+        <v>232.46097490736159</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>352.74670852531438</v>
+        <v>352.74738064175278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1004.459602585526</v>
+        <v>1004.918407307871</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>12.24950734860397</v>
+        <v>12.255102528144761</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>297.22671706945999</v>
+        <v>297.80319956213901</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +727,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>606.82826141043404</v>
+        <v>610.04810061023977</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>174.3757203752524</v>
+        <v>174.87659060748061</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +743,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>325.38668317671949</v>
+        <v>326.97565721830341</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -742,7 +751,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>381.45173358030939</v>
+        <v>381.57614814402609</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>469.19736658350479</v>
+        <v>466.72093878730323</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>14769.37174804033</v>
+        <v>14769.34360683197</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>15299.510640324021</v>
+        <v>15299.477731719169</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +815,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>5.4286000516118058</v>
+        <v>5.4133276524348837</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,7 +831,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +855,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>4000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +863,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>160</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>367.57279085754828</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +879,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>367.57279085754828</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +887,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>298.28125498608989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +895,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>78.788514846879053</v>
+        <v>298.06430789384899</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +903,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>19.964879352272</v>
+        <v>78.789041407444472</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +911,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>306.28125498608989</v>
+        <v>19.87382652979818</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +919,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>489.3571044545281</v>
+        <v>306.06430789384899</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>80.188514846879045</v>
+        <v>487.1718367151563</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +935,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3020.142626727169</v>
+        <v>80.189041407444464</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>665.5625099721799</v>
+        <v>3007.0310202909382</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +951,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>122.188514846879</v>
+        <v>665.1286157876981</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +959,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>249.20785477586779</v>
+        <v>122.18904140744451</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +967,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>87.3</v>
+        <v>247.98319498644881</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>505.40842163273891</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +983,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>468.90209670231502</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +991,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>15.96775657243804</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +999,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.4483893411071649</v>
+        <v>15.941696079727979</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +1007,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1.118925756853806</v>
+        <v>2.444393398891624</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1015,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>405.90434404364919</v>
+        <v>1.1170995919572351</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1023,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>245.2648602242846</v>
+        <v>405.90357064320159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1031,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1359.462680330661</v>
+        <v>245.2643326698707</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1039,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>113.724</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1047,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>174.96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2153.5551019633999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1063,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1071,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,39 +1079,39 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>60</v>
+      <c r="B59">
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
         <v>61</v>
-      </c>
-      <c r="B60">
-        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>63</v>
+      <c r="B61">
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1119,7 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1127,7 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1135,7 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,26 +1143,19 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B67">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B67" t="s">
         <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>